--- a/templates/firstTable.xlsx
+++ b/templates/firstTable.xlsx
@@ -494,7 +494,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A,C,D,G,H,K,M,P,Q,S,V</t>
+          <t>A,B</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -515,12 +515,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B,C,D,E,G,H,J,M,N,O,P,Q,R,S,V</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A,B,C,D,E,G,J,K,L,N,O,R</t>
+          <t>A,B</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -540,17 +540,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A,G,J,K,M,Q,R,T,U,V</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>B,E,H,J,L,P,R,S,T,U</t>
+          <t>A,B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A,B,C,D,E,G,H,K,M,N,P,R,S,T,U</t>
+          <t>A,B</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -569,22 +569,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A,C,D,E,G,J,K,L,M,N,O,P,Q,T,V</t>
+          <t>A,B</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>E,F,H,J,K,L,N,O,Q,S,T,V</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A,B,C,D,F,G,H,I,K,L,Q,R,S,T,V</t>
+          <t>A,B</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>C,D,E,F,H,I,K,L,N,O,P,Q,V</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -602,27 +602,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A,C,D,E,F,I,J,M,N,O,S,T,U,V</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>B,D,E,F,H,I,J,K,N,O,P,Q,T,U,V</t>
+          <t>A,B</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A,B,C,F,G,H,I,P,Q,R,T,U,V</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>C,D,E,F,I,K,N,O,P,Q,S,V</t>
-        </is>
-      </c>
+          <t>A,B</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>B,D,F,I,K,L,P,Q,S,U</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -639,32 +635,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A,C,D,G,H,M,N,Q,T,V</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>K,L,N,P,S,T,V</t>
-        </is>
-      </c>
+          <t>A,B</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>A,B,C,D,E,G,I,N,P,R,S,T,V</t>
+          <t>A,B</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A,C,D,H,I,J,K,N,V</t>
+          <t>A,B</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>A,E,H,J,K,L,N,P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>A,B,D,E,F,G,H,I,L,N,Q,S,U</t>
+          <t>A,B</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -680,37 +672,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A,C,F,G,J,M,N,O,R,U,V</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>B,C,E,F,G,H,J,K,N,O,P,Q,R,S,U</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>A,B,D,E,F,H,M,N,P,Q,R,S,U</t>
+          <t>A,B</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A,C,F,G,H,K,N,O,P,Q,T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>A,B,C,E,F,G,K,L,M,N,P,Q,R,T,U</t>
+          <t>A,B</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>A,C,D,E,G,H,I,M,N,R,S,T,V</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>B,C,E,F,G,H,J,M,O,P,Q,R,T,U</t>
+          <t>B</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -725,44 +717,40 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>A,D,E,I,K,N,P,T,U,V</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>B,D,E,H,I,K,L,M,N,Q,S,T,U,V</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>A,B,C,G,H,I,K,M,N,Q,R,S,T,U,V</t>
+          <t>A,B</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A,D,E,H,I,J,K,M,N,P,Q,V</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>A,B,D,I,J,L,M,N,Q,U</t>
+          <t>A,B</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>A,C,F,H,K,L,M,N,P,S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>B,D,E,H,I,K,M,P,Q,U</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>C,D,E,F,G,I,K,L,M,P,S,T,V</t>
-        </is>
-      </c>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -774,47 +762,43 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B,D,G,M,N,O,Q,T,U,V</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A,B,G,H,K,N,O,P,S,T,U</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>C,D,E,H,M,P,R,S,T,U</t>
-        </is>
-      </c>
+          <t>A,B</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A,B,D,G,J,K,N,O,P,T,U</t>
+          <t>A,B</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>A,B,E,G,J,K,L,M,P,T,U</t>
+          <t>A,B</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>A,B,C,D,E,F,G,I,M,Q,S,T,U,V</t>
+          <t>A,B</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>A,B,G,H,M,N,O,P,T,U</t>
+          <t>A,B</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>A,B,C,D,F,N,Q,T,U</t>
+          <t>A,B</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>A,B,D,E,G,I,K,M,O,P,Q,T,U</t>
+          <t>A,B</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -827,52 +811,48 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>A,C,D,F,G,J,O,Q,R,U</t>
+          <t>A,B</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>D,E,F,G,H,J,K,M,O,P,Q,R,S,U,V</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>A,B,C,E,F,H,J,M,N,O,P,Q,S,U,V</t>
+          <t>A,B</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>C,D,F,G,J,K,M,O,Q,R,T,V</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>D,E,F,G,J,K,L,M,N,O,P,R,T,U,V</t>
-        </is>
-      </c>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>B,E,G,I,J,M,N,O,Q,R,S,T,V</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>D,E,F,G,H,J,M,N,O,Q,R,T,U,V</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>C,D,J,M,N,O,Q,R,S,V</t>
+          <t>A,B</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>C,E,F,G,I,J,K,N,O,P,Q,R,T,V</t>
+          <t>A,B</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>A,B,C,D,E,F,J,M,N,O,Q,R,S,T,U,V</t>
+          <t>A,B</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -884,59 +864,51 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>A,C,H,K,L,M,N,R,T</t>
+          <t>A,B</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C,E,L,N,P,Q,R,S,T,V</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>A,B,D,E,G,I,K,L,N,P,Q,S,T,V</t>
+          <t>A,B</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>C,H,I,J,L,N,P,Q,R,T,V</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>C,E,H,J,N,P,Q,R,T,V</t>
-        </is>
-      </c>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>B,C,D,E,F,H,I,K,L,N,R,S,T,U,V</t>
+          <t>B</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>C,E,K,L,P,Q,R,T,V</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>F,G,H,I,K,L,R,T,V</t>
+          <t>A,B</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>C,D,E,H,I,L,M,P,R,T,V</t>
+          <t>A,B</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>A,B,C,E,G,H,I,K,L,N,Q,R,U,V</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>C,D,F,G,H,I,J,K,L,M,N,O,P,Q,T</t>
-        </is>
-      </c>
+          <t>A,B</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
     </row>
   </sheetData>

--- a/templates/firstTable.xlsx
+++ b/templates/firstTable.xlsx
@@ -494,7 +494,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A,B,C,D</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -515,12 +515,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B,D</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A,B,C,D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -540,17 +540,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A,C</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A,B,C,D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A,B,C,D</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -569,22 +569,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A,B,C,D</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A,C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A,B,C,D</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B,D</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -602,23 +602,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A,C</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A,B,C,D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A,B,C,D</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B,D</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -635,28 +635,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A,B,C,D</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A,B,C,D</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A,B,C,D</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A,C</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A,B,C,D</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -672,37 +672,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A,C</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B,D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A,B,C,D</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A,C</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A,B,C,D</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A,C</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B,D</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -717,37 +717,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A,C</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B,D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A,B,C,D</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A,C</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A,B,C,D</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A,C</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B,D</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -762,43 +762,43 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B,D</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A,B,C,D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A,B,C,D</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A,B,C,D</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A,B,C,D</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A,B,C,D</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A,B,C,D</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A,B,C,D</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -811,48 +811,48 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A,B,C,D</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A,C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A,B,C,D</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B,D</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B,D</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A,C</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A,B,C,D</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A,B,C,D</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A,B,C,D</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -864,48 +864,48 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A,B,C,D</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A,C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A,B,C,D</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B,D</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B,D</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A,C</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A,B,C,D</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A,B,C,D</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>A,B</t>
+          <t>A,B,C,D</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
